--- a/UserGuide/uploadformat.xlsx
+++ b/UserGuide/uploadformat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>周数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>W10</t>
+  </si>
+  <si>
+    <t>域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -397,129 +401,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2019</v>
-      </c>
-      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <v>2019</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2019</v>
-      </c>
-      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>2019</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2019</v>
-      </c>
-      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>2019</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2019</v>
-      </c>
-      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>2019</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2019</v>
-      </c>
-      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>2019</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2019</v>
-      </c>
-      <c r="B7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7">
+        <v>2019</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2019</v>
-      </c>
-      <c r="B8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8">
+        <v>2019</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2019</v>
-      </c>
-      <c r="B9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9">
+        <v>2019</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2019</v>
-      </c>
-      <c r="B10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10">
+        <v>2019</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <v>2019</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="D11">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>2019</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>2019</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>2019</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>8111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>2019</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>2019</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>2019</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>2019</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>2019</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>2019</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
         <v>841</v>
       </c>
     </row>

--- a/UserGuide/uploadformat.xlsx
+++ b/UserGuide/uploadformat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Design\物流\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\MES\MES\UserGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>周数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,35 +42,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>W2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W3</t>
-  </si>
-  <si>
-    <t>W4</t>
-  </si>
-  <si>
-    <t>W5</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>W7</t>
-  </si>
-  <si>
-    <t>W8</t>
-  </si>
-  <si>
-    <t>W9</t>
-  </si>
-  <si>
-    <t>W10</t>
-  </si>
-  <si>
-    <t>域</t>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压铸部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产2部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产1部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产4部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,21 +389,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -428,8 +416,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>200</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2019</v>
@@ -442,267 +430,50 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>200</v>
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2019</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>10200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>200</v>
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2019</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>5100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>200</v>
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2019</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>8111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>200</v>
-      </c>
-      <c r="B6">
-        <v>2019</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>200</v>
-      </c>
-      <c r="B7">
-        <v>2019</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>200</v>
-      </c>
-      <c r="B8">
-        <v>2019</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>200</v>
-      </c>
-      <c r="B9">
-        <v>2019</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>200</v>
-      </c>
-      <c r="B10">
-        <v>2019</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>200</v>
-      </c>
-      <c r="B11">
-        <v>2019</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <v>2019</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12">
         <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>2019</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>10200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>100</v>
-      </c>
-      <c r="B14">
-        <v>2019</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>100</v>
-      </c>
-      <c r="B15">
-        <v>2019</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>8111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>100</v>
-      </c>
-      <c r="B16">
-        <v>2019</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>100</v>
-      </c>
-      <c r="B17">
-        <v>2019</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>100</v>
-      </c>
-      <c r="B18">
-        <v>2019</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>100</v>
-      </c>
-      <c r="B19">
-        <v>2019</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>100</v>
-      </c>
-      <c r="B20">
-        <v>2019</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>100</v>
-      </c>
-      <c r="B21">
-        <v>2019</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>841</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UserGuide/uploadformat.xlsx
+++ b/UserGuide/uploadformat.xlsx
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>压铸部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产2部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,6 +55,10 @@
   </si>
   <si>
     <t>生产4部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产3部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +392,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -417,7 +417,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>2019</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2019</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>2019</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2019</v>
